--- a/sks-kobe-t/pdf/report9.xlsx
+++ b/sks-kobe-t/pdf/report9.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58449C3F-4D9F-42C1-AFE9-F585A8B28790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="様式" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
   <si>
     <t>(警備場所)</t>
     <rPh sb="1" eb="3">
@@ -729,7 +735,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1393,7 +1399,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1463,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1527,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1591,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1655,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1768,7 @@
         <xdr:cNvPr id="7" name="円/楕円 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1833,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1902,7 @@
         <xdr:cNvPr id="9" name="円/楕円 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1977,7 @@
         <xdr:cNvPr id="11" name="円/楕円 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2047,7 @@
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2103,7 @@
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2159,7 @@
         <xdr:cNvPr id="17" name="円/楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2226,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2290,7 @@
         <xdr:cNvPr id="19" name="テキスト ボックス 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2354,7 @@
         <xdr:cNvPr id="20" name="テキスト ボックス 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2418,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2482,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2546,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2610,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2706,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2797,7 +2803,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2830,9 +2836,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2865,6 +2888,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3040,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB36"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
@@ -3820,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W36"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
@@ -4694,11 +4734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4860,9 +4900,7 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="35"/>

--- a/sks-kobe-t/pdf/report9.xlsx
+++ b/sks-kobe-t/pdf/report9.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58449C3F-4D9F-42C1-AFE9-F585A8B28790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A524F4-683C-4187-92CA-728A5C6CF1EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="様式" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="2" r:id="rId2"/>
     <sheet name="2019.3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>(警備場所)</t>
     <rPh sb="1" eb="3">
@@ -622,74 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> ii.待機場Bから退場するコンテナ車両と歩行者に注意する</t>
-    <rPh sb="4" eb="6">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シャリョウ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ホコウシャ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> iv.その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> i.待機場B</t>
-    <rPh sb="3" eb="5">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ii.待機場Bに一時待機するコンテナ車両と歩行者に注意する。</t>
-    <rPh sb="4" eb="6">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シャリョウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ホコウシャ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>iii.待機場Bに進入，出場するコンテナ車両の交通誘導</t>
-    <rPh sb="12" eb="14">
-      <t>シュツジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　令和　　年　　月　　日(　　曜日)</t>
     <rPh sb="1" eb="2">
       <t>レイ</t>
@@ -729,6 +661,150 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.待機場B</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.作業結果(警備中における異状の有無)</t>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.待機場Bに進入、待機、出場するコンテナ車両に対する交通誘導</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.待機場Bから退場するコンテナ車両と歩行者に注意する</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ホコウシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.その他</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.待機場Bの車両整理と.待機場Aへ向かうコンテナ車両の交通誘導</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.待機場Bに一時待機するコンテナ車両と歩行者に注意する。</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ホコウシャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.待機場Bに進入，出場するコンテナ車両の交通誘導</t>
+    <rPh sb="10" eb="12">
+      <t>シュツジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.その他</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4737,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4863,7 +4939,7 @@
     </row>
     <row r="6" spans="2:22" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -4957,12 +5033,12 @@
     <row r="11" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="45" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -4984,7 +5060,7 @@
     <row r="12" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -5059,7 +5135,7 @@
     <row r="16" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -5084,7 +5160,7 @@
     <row r="17" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -5109,7 +5185,7 @@
     <row r="18" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -5167,7 +5243,7 @@
     <row r="22" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="41"/>
       <c r="C22" s="12" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -5192,7 +5268,7 @@
     <row r="23" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="35"/>
       <c r="C23" s="12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -5217,7 +5293,7 @@
     <row r="24" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="35"/>
       <c r="C24" s="12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -5242,7 +5318,7 @@
     <row r="25" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="35"/>
       <c r="C25" s="12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -5408,13 +5484,13 @@
     <row r="31" spans="2:22" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="76"/>
       <c r="C31" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="66"/>
       <c r="F31" s="67"/>
       <c r="G31" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="71"/>
@@ -5422,13 +5498,13 @@
       <c r="K31" s="71"/>
       <c r="L31" s="73"/>
       <c r="M31" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N31" s="70"/>
       <c r="O31" s="71"/>
       <c r="P31" s="73"/>
       <c r="Q31" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R31" s="70"/>
       <c r="S31" s="71"/>

--- a/sks-kobe-t/pdf/report9.xlsx
+++ b/sks-kobe-t/pdf/report9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A524F4-683C-4187-92CA-728A5C6CF1EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B335EB-9755-4B80-A8D9-3D119CEE442C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,28 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　令和　　年　　月　　日(　　曜日)</t>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　:  　 ～　　　：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -805,6 +783,22 @@
   </si>
   <si>
     <t>4.その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　年　　月　　日(　　曜日)</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4813,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4939,7 +4933,7 @@
     </row>
     <row r="6" spans="2:22" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="59" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -5033,12 +5027,12 @@
     <row r="11" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -5060,7 +5054,7 @@
     <row r="12" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -5135,7 +5129,7 @@
     <row r="16" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -5160,7 +5154,7 @@
     <row r="17" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -5185,7 +5179,7 @@
     <row r="18" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -5243,7 +5237,7 @@
     <row r="22" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="41"/>
       <c r="C22" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -5268,7 +5262,7 @@
     <row r="23" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="35"/>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -5293,7 +5287,7 @@
     <row r="24" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="35"/>
       <c r="C24" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -5318,7 +5312,7 @@
     <row r="25" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="35"/>
       <c r="C25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -5484,13 +5478,13 @@
     <row r="31" spans="2:22" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="76"/>
       <c r="C31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="65"/>
       <c r="E31" s="66"/>
       <c r="F31" s="67"/>
       <c r="G31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="71"/>
@@ -5498,13 +5492,13 @@
       <c r="K31" s="71"/>
       <c r="L31" s="73"/>
       <c r="M31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N31" s="70"/>
       <c r="O31" s="71"/>
       <c r="P31" s="73"/>
       <c r="Q31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R31" s="70"/>
       <c r="S31" s="71"/>
